--- a/biology/Zoologie/Chlaenius/Chlaenius.xlsx
+++ b/biology/Zoologie/Chlaenius/Chlaenius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Shanwangicarabus
 Chlaenius est un genre de coléoptères de la famille des Carabidae, de la sous-famille des Licininae, de la tribu des Chlaeniini et de la sous-tribu des Chlaeniina.
@@ -512,9 +524,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Chlaenius est décrit par Bonelli en 1810[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Chlaenius est décrit par Bonelli en 1810.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Sous-genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C. (Achlaenius) - 
 C. (Agostenus) - C. (Anomoglossus) - C. (Chlaeniellus) - C. (Chlaenioctenus) - C. (Chlaenites) - C. (Chlaenius) - C. (Dinodes) - C. (Eochlaenius) - C. (Epomis) - C. (Eurydactylus) - C. (Indalma) - 
@@ -576,9 +592,11 @@
           <t>Espèces fossiles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Paleobiology Database en 2023, le genre a six espèces fossiles référencées[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Paleobiology Database en 2023, le genre a six espèces fossiles référencées.
 †Chlaenius electrinus, Giebel 1862
 †Chlaenius furvus, Hong 1984
 †Chlaenius gebleri, Ganglbauer 1891
